--- a/JioMobile/June2021Mobile.xlsx
+++ b/JioMobile/June2021Mobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,57 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Smart1001Ajay</author>
     <author>Vijay</author>
   </authors>
   <commentList>
-    <comment ref="J80" authorId="0">
+    <comment ref="AJ37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+500-Digital
+2000-Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z62" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2000-Cash
+4000-Digital</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J80" authorId="1">
       <text>
         <r>
           <rPr>
@@ -43,6 +90,28 @@
           </rPr>
           <t xml:space="preserve">
 1 Jio phone sold to FOS shankar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Smart1001Ajay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Sold to FOS Shankar</t>
         </r>
       </text>
     </comment>
@@ -592,11 +661,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -616,51 +685,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -669,39 +693,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -728,6 +722,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -735,17 +782,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -760,11 +807,33 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -839,109 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,13 +932,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,25 +1034,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,7 +1058,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,26 +1126,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,17 +1168,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,18 +1184,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1162,130 +1231,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,7 +1423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1380,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1389,7 +1458,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1720,12 +1789,12 @@
   <sheetPr/>
   <dimension ref="A1:AX116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="S42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="V72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U51" sqref="U51"/>
+      <selection pane="bottomRight" activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1873,26 +1942,26 @@
       <c r="A2" s="15"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>169000</v>
+        <v>326500</v>
       </c>
       <c r="D2" s="16">
         <f>SUM(H3:H121)</f>
-        <v>67500</v>
+        <v>225000</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>169000</v>
+        <v>326500</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(J2:AN2)</f>
-        <v>67500</v>
+        <v>225000</v>
       </c>
       <c r="I2" s="29">
         <f>SUM(I3:I121)</f>
@@ -1952,39 +2021,39 @@
       </c>
       <c r="W2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="X2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="Y2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="Z2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="AA2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AB2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="AC2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="AD2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="AE2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="AF2" s="13">
         <f t="shared" si="0"/>
@@ -1996,11 +2065,11 @@
       </c>
       <c r="AH2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="AI2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="AJ2" s="13">
         <f t="shared" si="0"/>
@@ -2008,15 +2077,15 @@
       </c>
       <c r="AK2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="AL2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16500</v>
       </c>
       <c r="AM2" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AN2" s="1"/>
     </row>
@@ -2239,15 +2308,15 @@
       </c>
       <c r="F6" s="13">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>15000</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="I6" s="30">
         <v>4500</v>
@@ -2270,9 +2339,15 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="AA6" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -2282,7 +2357,10 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
+      <c r="AK6" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
@@ -2312,15 +2390,15 @@
       </c>
       <c r="F7" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I7" s="30">
         <v>0</v>
@@ -2340,7 +2418,10 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -2352,7 +2433,10 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="AK7" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
@@ -2519,15 +2603,15 @@
       </c>
       <c r="F10" s="13">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="3"/>
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="I10" s="30">
         <v>15000</v>
@@ -2553,7 +2637,10 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
+      <c r="AB10" s="1">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -2563,7 +2650,10 @@
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="AL10" s="1">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -3408,15 +3498,15 @@
       </c>
       <c r="F23" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I23" s="30">
         <v>0</v>
@@ -3450,7 +3540,10 @@
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
+      <c r="AM23" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
       <c r="AP23" s="1"/>
@@ -4014,15 +4107,15 @@
       </c>
       <c r="F32" s="13">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I32" s="30">
         <v>15000</v>
@@ -4047,7 +4140,10 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
+      <c r="AD32" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
@@ -4056,7 +4152,10 @@
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
+      <c r="AM32" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
       <c r="AP32" s="1"/>
@@ -4148,15 +4247,15 @@
       </c>
       <c r="F34" s="13">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H34" s="13">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="I34" s="30">
         <v>1500</v>
@@ -4177,10 +4276,16 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
+      <c r="W34" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
+      <c r="Z34" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
@@ -4191,7 +4296,10 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
+      <c r="AK34" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
@@ -4352,15 +4460,15 @@
       </c>
       <c r="F37" s="13">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="I37" s="30">
         <v>0</v>
@@ -4387,18 +4495,27 @@
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
+      <c r="Z37" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
+      <c r="AE37" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
+      <c r="AK37" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
@@ -4696,15 +4813,15 @@
       </c>
       <c r="F42" s="13">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="G42" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I42" s="30">
         <v>1500</v>
@@ -4734,9 +4851,15 @@
       <c r="AF42" s="1"/>
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
+      <c r="AI42" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
+      <c r="AK42" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
@@ -4964,15 +5087,15 @@
       </c>
       <c r="F46" s="13">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="G46" s="13">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H46" s="13">
         <f t="shared" si="6"/>
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="I46" s="30">
         <v>0</v>
@@ -4998,7 +5121,10 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
+      <c r="Y46" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -5007,7 +5133,10 @@
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
+      <c r="AH46" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -5037,15 +5166,15 @@
       </c>
       <c r="F47" s="13">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>10500</v>
       </c>
       <c r="G47" s="13">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H47" s="13">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>10500</v>
       </c>
       <c r="I47" s="30">
         <v>0</v>
@@ -5068,7 +5197,10 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
+      <c r="Y47" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
@@ -5077,7 +5209,10 @@
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1"/>
-      <c r="AH47" s="1"/>
+      <c r="AH47" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
@@ -5311,15 +5446,15 @@
       </c>
       <c r="F51" s="13">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H51" s="13">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="I51" s="30">
         <v>0</v>
@@ -5355,7 +5490,10 @@
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
       <c r="AK51" s="1"/>
-      <c r="AL51" s="1"/>
+      <c r="AL51" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
       <c r="AO51" s="1"/>
@@ -5451,15 +5589,15 @@
       </c>
       <c r="F53" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H53" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I53" s="30">
         <v>0</v>
@@ -5478,7 +5616,10 @@
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
+      <c r="X53" s="1">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
@@ -5859,15 +6000,15 @@
       </c>
       <c r="F59" s="13">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>21000</v>
       </c>
       <c r="G59" s="13">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H59" s="13">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="I59" s="30">
         <v>9000</v>
@@ -5899,7 +6040,10 @@
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1"/>
-      <c r="AH59" s="1"/>
+      <c r="AH59" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
       <c r="AK59" s="1"/>
@@ -5929,15 +6073,15 @@
       </c>
       <c r="F60" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G60" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H60" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I60" s="30">
         <v>0</v>
@@ -5962,12 +6106,18 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
+      <c r="AD60" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
+      <c r="AI60" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
@@ -6067,15 +6217,15 @@
       </c>
       <c r="F62" s="13">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="G62" s="13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H62" s="13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I62" s="30">
         <v>3000</v>
@@ -6096,12 +6246,18 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
+      <c r="Z62" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
       <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
+      <c r="AE62" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
@@ -6749,15 +6905,15 @@
       </c>
       <c r="F72" s="13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="G72" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H72" s="13">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I72" s="30">
         <v>0</v>
@@ -6781,7 +6937,10 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
+      <c r="AC72" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
       <c r="AF72" s="1"/>
@@ -6789,7 +6948,10 @@
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
-      <c r="AK72" s="1"/>
+      <c r="AK72" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
       <c r="AN72" s="1"/>
@@ -6816,15 +6978,15 @@
       </c>
       <c r="F73" s="13">
         <f t="shared" si="7"/>
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="G73" s="13">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H73" s="13">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I73" s="30">
         <v>3000</v>
@@ -6848,7 +7010,10 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
+      <c r="AC73" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AD73" s="1"/>
       <c r="AE73" s="1"/>
       <c r="AF73" s="1"/>
@@ -6856,7 +7021,10 @@
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
-      <c r="AK73" s="1"/>
+      <c r="AK73" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
@@ -7288,15 +7456,15 @@
       </c>
       <c r="F80" s="13">
         <f t="shared" si="7"/>
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="G80" s="13">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H80" s="13">
         <f t="shared" si="9"/>
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="I80" s="30">
         <v>0</v>
@@ -7325,7 +7493,10 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
       <c r="AD80" s="1"/>
-      <c r="AE80" s="1"/>
+      <c r="AE80" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
@@ -7333,7 +7504,10 @@
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
-      <c r="AM80" s="1"/>
+      <c r="AM80" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
       <c r="AP80" s="1"/>
@@ -9292,11 +9466,11 @@
   <dimension ref="A1:BA112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="K33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AG76" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T52" sqref="T52"/>
+      <selection pane="bottomRight" activeCell="AL81" sqref="AL81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9445,14 +9619,14 @@
       <c r="E2" s="15"/>
       <c r="F2" s="16">
         <f>SUM(H3:H121)</f>
-        <v>76000</v>
+        <v>246000</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="18">
         <f t="shared" ref="H2:H35" si="0">SUM(I2:AM2)</f>
-        <v>76000</v>
+        <v>246000</v>
       </c>
       <c r="I2" s="13">
         <f t="shared" ref="I2:AL2" si="1">SUM(I3:I121)</f>
@@ -9508,55 +9682,55 @@
       </c>
       <c r="V2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="W2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="X2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="Y2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="Z2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="AA2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="AB2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AC2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AD2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="AE2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="AF2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AG2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="AH2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="AI2" s="13">
         <f t="shared" si="1"/>
@@ -9564,15 +9738,15 @@
       </c>
       <c r="AJ2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="AK2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17500</v>
       </c>
       <c r="AL2" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
@@ -9601,7 +9775,7 @@
       </c>
       <c r="H3" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -9625,7 +9799,9 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
+      <c r="AE3" s="21">
+        <v>7500</v>
+      </c>
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
@@ -9811,7 +9987,7 @@
       </c>
       <c r="H6" s="13">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -9832,14 +10008,20 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="1">
+        <v>5000</v>
+      </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AD6" s="21">
+        <v>2000</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
+      <c r="AG6" s="21">
+        <v>2000</v>
+      </c>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
@@ -9885,7 +10067,7 @@
       </c>
       <c r="H7" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -9914,7 +10096,9 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
+      <c r="AJ7" s="1">
+        <v>3000</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
@@ -10083,7 +10267,7 @@
       </c>
       <c r="H10" s="13">
         <f t="shared" si="0"/>
-        <v>15000</v>
+        <v>45000</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -10105,7 +10289,9 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
+      <c r="AA10" s="1">
+        <v>15000</v>
+      </c>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -10115,7 +10301,9 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
+      <c r="AK10" s="1">
+        <v>15000</v>
+      </c>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
@@ -10700,7 +10888,7 @@
       </c>
       <c r="H19" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -10725,7 +10913,9 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
+      <c r="AF19" s="21">
+        <v>3000</v>
+      </c>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -10982,7 +11172,7 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -11013,7 +11203,9 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
+      <c r="AL23" s="21">
+        <v>3000</v>
+      </c>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -11596,7 +11788,7 @@
       </c>
       <c r="H32" s="13">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -11618,18 +11810,26 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
+      <c r="AA32" s="21">
+        <v>1000</v>
+      </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
+      <c r="AD32" s="21">
+        <v>1000</v>
+      </c>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
+      <c r="AK32" s="21">
+        <v>1000</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>3000</v>
+      </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -11730,7 +11930,7 @@
       </c>
       <c r="H34" s="13">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>10500</v>
       </c>
       <c r="I34" s="1">
         <v>1500</v>
@@ -11749,15 +11949,21 @@
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
+      <c r="V34" s="1">
+        <v>3000</v>
+      </c>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
+      <c r="Y34" s="1">
+        <v>1500</v>
+      </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
+      <c r="AD34" s="1">
+        <v>3000</v>
+      </c>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="1"/>
@@ -11928,7 +12134,7 @@
       </c>
       <c r="H37" s="13">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>17500</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -11952,16 +12158,22 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
+      <c r="AA37" s="1">
+        <v>3000</v>
+      </c>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
+      <c r="AG37" s="21">
+        <v>6000</v>
+      </c>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
+      <c r="AJ37" s="21">
+        <v>2500</v>
+      </c>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
@@ -12064,7 +12276,7 @@
       </c>
       <c r="H39" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -12084,7 +12296,9 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
+      <c r="AA39" s="1">
+        <v>1000</v>
+      </c>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
       <c r="AD39" s="1"/>
@@ -12262,7 +12476,7 @@
       </c>
       <c r="H42" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -12280,7 +12494,9 @@
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
+      <c r="Y42" s="1">
+        <v>1500</v>
+      </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -12291,7 +12507,9 @@
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
+      <c r="AJ42" s="1">
+        <v>1500</v>
+      </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
@@ -12454,7 +12672,7 @@
       </c>
       <c r="H45" s="13">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -12474,7 +12692,9 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
+      <c r="Y45" s="21">
+        <v>3000</v>
+      </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -12525,7 +12745,7 @@
       </c>
       <c r="H46" s="13">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>18000</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -12546,7 +12766,9 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
+      <c r="X46" s="1">
+        <v>3000</v>
+      </c>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
@@ -12556,7 +12778,9 @@
       <c r="AE46" s="1"/>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1"/>
-      <c r="AH46" s="1"/>
+      <c r="AH46" s="1">
+        <v>6000</v>
+      </c>
       <c r="AI46" s="1"/>
       <c r="AJ46" s="1"/>
       <c r="AK46" s="1"/>
@@ -12592,7 +12816,7 @@
       </c>
       <c r="H47" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -12608,8 +12832,12 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
+      <c r="W47" s="21">
+        <v>1500</v>
+      </c>
+      <c r="X47" s="21">
+        <v>3000</v>
+      </c>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
@@ -12618,7 +12846,9 @@
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="1"/>
+      <c r="AG47" s="21">
+        <v>6000</v>
+      </c>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
@@ -12878,7 +13108,7 @@
       </c>
       <c r="H51" s="13">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -12910,7 +13140,9 @@
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
       <c r="AJ51" s="1"/>
-      <c r="AK51" s="1"/>
+      <c r="AK51" s="1">
+        <v>1500</v>
+      </c>
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
@@ -13014,7 +13246,7 @@
       </c>
       <c r="H53" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -13030,7 +13262,9 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
+      <c r="W53" s="1">
+        <v>4500</v>
+      </c>
       <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
@@ -13146,7 +13380,7 @@
       </c>
       <c r="H55" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -13162,7 +13396,9 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
+      <c r="W55" s="21">
+        <v>3000</v>
+      </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
@@ -13416,7 +13652,7 @@
       </c>
       <c r="H59" s="13">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -13444,7 +13680,9 @@
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
       <c r="AF59" s="1"/>
-      <c r="AG59" s="1"/>
+      <c r="AG59" s="1">
+        <v>6000</v>
+      </c>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
       <c r="AJ59" s="1"/>
@@ -13481,7 +13719,7 @@
       </c>
       <c r="H60" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -13503,12 +13741,16 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
+      <c r="AC60" s="1">
+        <v>3000</v>
+      </c>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1"/>
-      <c r="AH60" s="1"/>
+      <c r="AH60" s="1">
+        <v>6000</v>
+      </c>
       <c r="AI60" s="1"/>
       <c r="AJ60" s="1"/>
       <c r="AK60" s="1"/>
@@ -13618,7 +13860,7 @@
       </c>
       <c r="H62" s="13">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="I62" s="1">
         <v>3000</v>
@@ -13639,11 +13881,15 @@
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
+      <c r="Z62" s="21">
+        <v>6000</v>
+      </c>
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
+      <c r="AD62" s="1">
+        <v>6000</v>
+      </c>
       <c r="AE62" s="1"/>
       <c r="AF62" s="1"/>
       <c r="AG62" s="1"/>
@@ -14151,7 +14397,7 @@
       </c>
       <c r="H70" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -14180,7 +14426,9 @@
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
+      <c r="AJ70" s="1">
+        <v>1500</v>
+      </c>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
@@ -14277,7 +14525,7 @@
       </c>
       <c r="H72" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -14298,7 +14546,9 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
+      <c r="AB72" s="21">
+        <v>6000</v>
+      </c>
       <c r="AC72" s="1"/>
       <c r="AD72" s="1"/>
       <c r="AE72" s="1"/>
@@ -14306,7 +14556,9 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
+      <c r="AJ72" s="21">
+        <v>6000</v>
+      </c>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
@@ -14340,7 +14592,7 @@
       </c>
       <c r="H73" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -14360,11 +14612,17 @@
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
+      <c r="AA73" s="21">
+        <v>3000</v>
+      </c>
+      <c r="AB73" s="21">
+        <v>3000</v>
+      </c>
       <c r="AC73" s="1"/>
       <c r="AD73" s="1"/>
-      <c r="AE73" s="1"/>
+      <c r="AE73" s="21">
+        <v>3000</v>
+      </c>
       <c r="AF73" s="1"/>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
@@ -14811,7 +15069,7 @@
       </c>
       <c r="H80" s="13">
         <f t="shared" si="3"/>
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1">
@@ -14836,7 +15094,9 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-      <c r="AD80" s="1"/>
+      <c r="AD80" s="1">
+        <v>1500</v>
+      </c>
       <c r="AE80" s="1"/>
       <c r="AF80" s="1"/>
       <c r="AG80" s="1"/>
@@ -14844,7 +15104,9 @@
       <c r="AI80" s="1"/>
       <c r="AJ80" s="1"/>
       <c r="AK80" s="1"/>
-      <c r="AL80" s="1"/>
+      <c r="AL80" s="1">
+        <v>3000</v>
+      </c>
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
@@ -16633,8 +16895,8 @@
   <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:B$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -16670,11 +16932,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>93000</v>
+        <v>80500</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>93000</v>
+        <v>80500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -16689,7 +16951,7 @@
       </c>
       <c r="D3" s="10">
         <f>Orders!F3-Collection!H3</f>
-        <v>7500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -16734,7 +16996,7 @@
       </c>
       <c r="D6" s="10">
         <f>Orders!F6-Collection!H6</f>
-        <v>4500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -16749,7 +17011,7 @@
       </c>
       <c r="D7" s="10">
         <f>Orders!F7-Collection!H7</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -16929,7 +17191,7 @@
       </c>
       <c r="D19" s="10">
         <f>Orders!F19-Collection!H19</f>
-        <v>5000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -17199,7 +17461,7 @@
       </c>
       <c r="D37" s="10">
         <f>Orders!F37-Collection!H37</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -17229,7 +17491,7 @@
       </c>
       <c r="D39" s="10">
         <f>Orders!F39-Collection!H39</f>
-        <v>4500</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -17319,7 +17581,7 @@
       </c>
       <c r="D45" s="10">
         <f>Orders!F45-Collection!H45</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -17349,7 +17611,7 @@
       </c>
       <c r="D47" s="10">
         <f>Orders!F47-Collection!H47</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -17469,7 +17731,7 @@
       </c>
       <c r="D55" s="10">
         <f>Orders!F55-Collection!H55</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -17694,7 +17956,7 @@
       </c>
       <c r="D70" s="10">
         <f>Orders!F70-Collection!H70</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -17739,7 +18001,7 @@
       </c>
       <c r="D73" s="10">
         <f>Orders!F73-Collection!H73</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
